--- a/CashFlow/SGEN_cashflow.xlsx
+++ b/CashFlow/SGEN_cashflow.xlsx
@@ -758,22 +758,22 @@
         </is>
       </c>
       <c r="B6" s="0" t="n">
-        <v>272545000.0</v>
+        <v>-61851000.0</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>388000000.0</v>
+        <v>-30204000.0</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>358000000.0</v>
+        <v>-4693000.0</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>242116000.0</v>
+        <v>-16852000.0</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>146202000.0</v>
+        <v>-17504000.0</v>
       </c>
       <c r="G6" s="0" t="n">
-        <v>47205000.0</v>
+        <v>-32693000.0</v>
       </c>
       <c r="H6" s="0" t="n">
         <v>-16862000.0</v>
@@ -4158,10 +4158,8 @@
           <t>Capital Stock Change</t>
         </is>
       </c>
-      <c r="B29" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B29" s="0" t="n">
+        <v>844113000.0</v>
       </c>
       <c r="C29" s="0" t="n">
         <v>846108000.0</v>
